--- a/00AlgoDis_unqdis.xlsx
+++ b/00AlgoDis_unqdis.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahajvi1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="unqdis" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4447" uniqueCount="3291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4464" uniqueCount="3292">
   <si>
     <t>Code</t>
   </si>
@@ -9891,13 +9896,16 @@
   </si>
   <si>
     <t>Psychological disease -- manas roga, schiczophrania, 14 days for acute, 30 chronic</t>
+  </si>
+  <si>
+    <t>within 1 year simple to cure, o.w. difficult to disease</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10034,7 +10042,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10214,6 +10222,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -10375,8 +10389,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10424,6 +10439,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -10470,7 +10493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10502,9 +10525,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10536,6 +10560,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10711,18 +10736,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N1067"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="30" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="30" topLeftCell="B895" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
+      <selection pane="bottomRight" activeCell="B897" sqref="B897"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -10738,7 +10763,7 @@
     <col min="13" max="13" width="12.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10776,7 +10801,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -10790,7 +10815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10804,7 +10829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10818,7 +10843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -10832,7 +10857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10846,7 +10871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -10860,7 +10885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -10874,7 +10899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -10888,7 +10913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -10902,7 +10927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -10916,7 +10941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -10930,7 +10955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -10944,7 +10969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -10958,7 +10983,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -10972,7 +10997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -10986,7 +11011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -11000,7 +11025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -11014,7 +11039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -11028,7 +11053,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -11042,7 +11067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -11056,7 +11081,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -11070,7 +11095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -11084,7 +11109,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -11098,7 +11123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -11112,7 +11137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -11126,7 +11151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -11140,7 +11165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -11154,7 +11179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -11168,7 +11193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -11182,7 +11207,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>277</v>
       </c>
@@ -11214,7 +11239,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2169</v>
       </c>
@@ -11246,7 +11271,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>465</v>
       </c>
@@ -11275,7 +11300,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>953</v>
       </c>
@@ -11304,7 +11329,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -11318,7 +11343,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1464</v>
       </c>
@@ -11347,7 +11372,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1728</v>
       </c>
@@ -11376,7 +11401,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2049</v>
       </c>
@@ -11405,7 +11430,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>810</v>
       </c>
@@ -11434,7 +11459,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2057</v>
       </c>
@@ -11463,7 +11488,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1690</v>
       </c>
@@ -11492,7 +11517,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2575</v>
       </c>
@@ -11521,7 +11546,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2735</v>
       </c>
@@ -11550,7 +11575,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2294</v>
       </c>
@@ -11579,7 +11604,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>269</v>
       </c>
@@ -11611,7 +11636,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1003</v>
       </c>
@@ -11643,7 +11668,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>891</v>
       </c>
@@ -11675,7 +11700,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>899</v>
       </c>
@@ -11707,7 +11732,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2516</v>
       </c>
@@ -11739,7 +11764,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1825</v>
       </c>
@@ -11771,7 +11796,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1598</v>
       </c>
@@ -11803,7 +11828,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2372</v>
       </c>
@@ -11835,7 +11860,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2695</v>
       </c>
@@ -11867,7 +11892,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -11881,7 +11906,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -11895,7 +11920,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2563</v>
       </c>
@@ -11927,7 +11952,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1011</v>
       </c>
@@ -11959,7 +11984,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>792</v>
       </c>
@@ -11991,7 +12016,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>617</v>
       </c>
@@ -12023,7 +12048,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1429</v>
       </c>
@@ -12055,7 +12080,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2795</v>
       </c>
@@ -12087,7 +12112,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2161</v>
       </c>
@@ -12119,7 +12144,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>485</v>
       </c>
@@ -12148,7 +12173,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3016</v>
       </c>
@@ -12177,7 +12202,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>427</v>
       </c>
@@ -12206,7 +12231,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1047</v>
       </c>
@@ -12235,7 +12260,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1634</v>
       </c>
@@ -12249,7 +12274,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -12262,8 +12287,23 @@
       <c r="D68" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="E68" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G68">
+        <v>999</v>
+      </c>
+      <c r="H68" t="s">
+        <v>3280</v>
+      </c>
+      <c r="K68" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1158</v>
       </c>
@@ -12276,8 +12316,23 @@
       <c r="D69" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="E69" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G69">
+        <v>999</v>
+      </c>
+      <c r="H69" t="s">
+        <v>3280</v>
+      </c>
+      <c r="K69" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>441</v>
       </c>
@@ -12290,8 +12345,23 @@
       <c r="D70" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="E70" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G70">
+        <v>999</v>
+      </c>
+      <c r="H70" t="s">
+        <v>3280</v>
+      </c>
+      <c r="K70" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -12304,8 +12374,23 @@
       <c r="D71" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="E71" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3281</v>
+      </c>
+      <c r="G71">
+        <v>999</v>
+      </c>
+      <c r="H71" t="s">
+        <v>3280</v>
+      </c>
+      <c r="K71" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>110</v>
       </c>
@@ -12319,7 +12404,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -12333,7 +12418,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>875</v>
       </c>
@@ -12347,7 +12432,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>405</v>
       </c>
@@ -12361,7 +12446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>433</v>
       </c>
@@ -12375,7 +12460,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>933</v>
       </c>
@@ -12389,7 +12474,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1506</v>
       </c>
@@ -12403,7 +12488,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -12417,7 +12502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1678</v>
       </c>
@@ -12431,7 +12516,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>585</v>
       </c>
@@ -12445,7 +12530,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>839</v>
       </c>
@@ -12459,7 +12544,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>349</v>
       </c>
@@ -12473,7 +12558,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>701</v>
       </c>
@@ -12487,7 +12572,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>3020</v>
       </c>
@@ -12501,7 +12586,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>3214</v>
       </c>
@@ -12515,7 +12600,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>431</v>
       </c>
@@ -12529,7 +12614,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1313</v>
       </c>
@@ -12543,7 +12628,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>625</v>
       </c>
@@ -12557,7 +12642,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>859</v>
       </c>
@@ -12571,7 +12656,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2905</v>
       </c>
@@ -12585,7 +12670,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>350</v>
       </c>
@@ -12599,7 +12684,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1035</v>
       </c>
@@ -12613,7 +12698,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2215</v>
       </c>
@@ -12627,7 +12712,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2129</v>
       </c>
@@ -12641,7 +12726,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1779</v>
       </c>
@@ -12655,7 +12740,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1989</v>
       </c>
@@ -12669,7 +12754,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>903</v>
       </c>
@@ -12683,7 +12768,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3154</v>
       </c>
@@ -12697,7 +12782,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2812</v>
       </c>
@@ -12711,7 +12796,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>541</v>
       </c>
@@ -12725,7 +12810,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1190</v>
       </c>
@@ -12739,7 +12824,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1425</v>
       </c>
@@ -12753,7 +12838,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2053</v>
       </c>
@@ -12767,7 +12852,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>361</v>
       </c>
@@ -12781,7 +12866,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2428</v>
       </c>
@@ -12795,7 +12880,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>2093</v>
       </c>
@@ -12809,7 +12894,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2350</v>
       </c>
@@ -12823,7 +12908,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>305</v>
       </c>
@@ -12837,7 +12922,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1273</v>
       </c>
@@ -12851,7 +12936,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>411</v>
       </c>
@@ -12865,7 +12950,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>605</v>
       </c>
@@ -12879,7 +12964,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1146</v>
       </c>
@@ -12893,7 +12978,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2237</v>
       </c>
@@ -12907,7 +12992,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2157</v>
       </c>
@@ -12921,7 +13006,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>215</v>
       </c>
@@ -12935,7 +13020,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>879</v>
       </c>
@@ -12949,7 +13034,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1357</v>
       </c>
@@ -12963,7 +13048,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>317</v>
       </c>
@@ -12977,7 +13062,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2286</v>
       </c>
@@ -12991,7 +13076,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>445</v>
       </c>
@@ -13005,7 +13090,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2753</v>
       </c>
@@ -13019,7 +13104,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>689</v>
       </c>
@@ -13033,7 +13118,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2713</v>
       </c>
@@ -13047,7 +13132,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2994</v>
       </c>
@@ -13061,7 +13146,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2976</v>
       </c>
@@ -13075,7 +13160,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>293</v>
       </c>
@@ -13107,7 +13192,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2717</v>
       </c>
@@ -13139,7 +13224,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2611</v>
       </c>
@@ -13171,7 +13256,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2424</v>
       </c>
@@ -13203,7 +13288,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1194</v>
       </c>
@@ -13217,7 +13302,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>449</v>
       </c>
@@ -13231,7 +13316,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>788</v>
       </c>
@@ -13245,7 +13330,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>545</v>
       </c>
@@ -13259,7 +13344,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1694</v>
       </c>
@@ -13273,7 +13358,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1421</v>
       </c>
@@ -13287,7 +13372,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>645</v>
       </c>
@@ -13301,7 +13386,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2390</v>
       </c>
@@ -13315,7 +13400,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>239</v>
       </c>
@@ -13329,7 +13414,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>3024</v>
       </c>
@@ -13343,7 +13428,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1698</v>
       </c>
@@ -13357,7 +13442,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2623</v>
       </c>
@@ -13371,7 +13456,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>273</v>
       </c>
@@ -13385,7 +13470,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>3112</v>
       </c>
@@ -13399,7 +13484,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -13413,7 +13498,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1494</v>
       </c>
@@ -13427,7 +13512,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>641</v>
       </c>
@@ -13441,7 +13526,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>533</v>
       </c>
@@ -13455,7 +13540,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1670</v>
       </c>
@@ -13469,7 +13554,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>281</v>
       </c>
@@ -13483,7 +13568,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>685</v>
       </c>
@@ -13497,7 +13582,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1722</v>
       </c>
@@ -13511,7 +13596,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>697</v>
       </c>
@@ -13525,7 +13610,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1437</v>
       </c>
@@ -13539,7 +13624,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1594</v>
       </c>
@@ -13553,7 +13638,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2019</v>
       </c>
@@ -13567,7 +13652,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1925</v>
       </c>
@@ -13581,7 +13666,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>505</v>
       </c>
@@ -13595,7 +13680,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1590</v>
       </c>
@@ -13609,7 +13694,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>752</v>
       </c>
@@ -13623,7 +13708,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>851</v>
       </c>
@@ -13637,7 +13722,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1522</v>
       </c>
@@ -13651,7 +13736,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2583</v>
       </c>
@@ -13665,7 +13750,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2665</v>
       </c>
@@ -13679,7 +13764,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2035</v>
       </c>
@@ -13693,7 +13778,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>828</v>
       </c>
@@ -13707,7 +13792,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>469</v>
       </c>
@@ -13721,7 +13806,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1736</v>
       </c>
@@ -13735,7 +13820,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2304</v>
       </c>
@@ -13749,7 +13834,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2901</v>
       </c>
@@ -13763,7 +13848,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1939</v>
       </c>
@@ -13777,7 +13862,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>101</v>
       </c>
@@ -13791,7 +13876,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1514</v>
       </c>
@@ -13805,7 +13890,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1550</v>
       </c>
@@ -13819,7 +13904,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1732</v>
       </c>
@@ -13833,7 +13918,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>3122</v>
       </c>
@@ -13847,7 +13932,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>143</v>
       </c>
@@ -13861,7 +13946,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2687</v>
       </c>
@@ -13875,7 +13960,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2023</v>
       </c>
@@ -13889,7 +13974,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2645</v>
       </c>
@@ -13903,7 +13988,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1075</v>
       </c>
@@ -13917,7 +14002,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>174</v>
       </c>
@@ -13931,7 +14016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1329</v>
       </c>
@@ -13945,7 +14030,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2771</v>
       </c>
@@ -13959,7 +14044,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1546</v>
       </c>
@@ -13973,7 +14058,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>203</v>
       </c>
@@ -13987,7 +14072,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2245</v>
       </c>
@@ -14001,7 +14086,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -14015,7 +14100,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>653</v>
       </c>
@@ -14029,7 +14114,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>659</v>
       </c>
@@ -14043,7 +14128,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -14057,7 +14142,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -14071,7 +14156,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -14085,7 +14170,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -14099,7 +14184,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -14113,7 +14198,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>265</v>
       </c>
@@ -14127,7 +14212,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>127</v>
       </c>
@@ -14141,7 +14226,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1648</v>
       </c>
@@ -14155,7 +14240,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1202</v>
       </c>
@@ -14169,7 +14254,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>907</v>
       </c>
@@ -14183,7 +14268,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>2836</v>
       </c>
@@ -14197,7 +14282,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>677</v>
       </c>
@@ -14211,7 +14296,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>573</v>
       </c>
@@ -14225,7 +14310,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1829</v>
       </c>
@@ -14239,7 +14324,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -14253,7 +14338,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -14267,7 +14352,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -14281,7 +14366,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -14295,7 +14380,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -14309,7 +14394,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -14323,7 +14408,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -14337,7 +14422,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -14351,7 +14436,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>131</v>
       </c>
@@ -14365,7 +14450,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>88</v>
       </c>
@@ -14379,7 +14464,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>911</v>
       </c>
@@ -14393,7 +14478,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -14407,7 +14492,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1293</v>
       </c>
@@ -14421,7 +14506,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1166</v>
       </c>
@@ -14435,7 +14520,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1574</v>
       </c>
@@ -14449,7 +14534,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>415</v>
       </c>
@@ -14463,7 +14548,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>2832</v>
       </c>
@@ -14477,7 +14562,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>2442</v>
       </c>
@@ -14491,7 +14576,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1134</v>
       </c>
@@ -14505,7 +14590,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>3130</v>
       </c>
@@ -14519,7 +14604,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>2420</v>
       </c>
@@ -14533,7 +14618,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>357</v>
       </c>
@@ -14547,7 +14632,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>2619</v>
       </c>
@@ -14561,7 +14646,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1309</v>
       </c>
@@ -14575,7 +14660,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>2133</v>
       </c>
@@ -14589,7 +14674,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>2731</v>
       </c>
@@ -14603,7 +14688,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1082</v>
       </c>
@@ -14617,7 +14702,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>3067</v>
       </c>
@@ -14631,7 +14716,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -14645,7 +14730,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -14659,7 +14744,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -14673,7 +14758,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -14687,7 +14772,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>2151</v>
       </c>
@@ -14701,7 +14786,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1353</v>
       </c>
@@ -14715,7 +14800,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -14729,7 +14814,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -14743,7 +14828,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -14757,7 +14842,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -14771,7 +14856,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -14785,7 +14870,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -14799,7 +14884,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>2308</v>
       </c>
@@ -14813,7 +14898,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>2410</v>
       </c>
@@ -14827,7 +14912,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>2165</v>
       </c>
@@ -14841,7 +14926,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>768</v>
       </c>
@@ -14855,7 +14940,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>923</v>
       </c>
@@ -14869,7 +14954,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1257</v>
       </c>
@@ -14883,7 +14968,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>313</v>
       </c>
@@ -14897,7 +14982,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>2492</v>
       </c>
@@ -14911,7 +14996,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2274</v>
       </c>
@@ -14925,7 +15010,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>756</v>
       </c>
@@ -14939,7 +15024,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1063</v>
       </c>
@@ -14953,7 +15038,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1393</v>
       </c>
@@ -14967,7 +15052,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>649</v>
       </c>
@@ -14981,7 +15066,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>2043</v>
       </c>
@@ -14995,7 +15080,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>2207</v>
       </c>
@@ -15009,7 +15094,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>337</v>
       </c>
@@ -15023,7 +15108,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>135</v>
       </c>
@@ -15037,7 +15122,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>513</v>
       </c>
@@ -15051,7 +15136,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1714</v>
       </c>
@@ -15065,7 +15150,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>407</v>
       </c>
@@ -15079,7 +15164,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>744</v>
       </c>
@@ -15093,7 +15178,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>2587</v>
       </c>
@@ -15107,7 +15192,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>2452</v>
       </c>
@@ -15121,7 +15206,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1947</v>
       </c>
@@ -15135,7 +15220,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1150</v>
       </c>
@@ -15149,7 +15234,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1237</v>
       </c>
@@ -15163,7 +15248,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>4</v>
       </c>
@@ -15177,7 +15262,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>883</v>
       </c>
@@ -15191,7 +15276,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>2270</v>
       </c>
@@ -15205,7 +15290,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>855</v>
       </c>
@@ -15219,7 +15304,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1186</v>
       </c>
@@ -15233,7 +15318,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>2434</v>
       </c>
@@ -15247,7 +15332,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>593</v>
       </c>
@@ -15261,7 +15346,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1951</v>
       </c>
@@ -15275,7 +15360,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1985</v>
       </c>
@@ -15289,7 +15374,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1977</v>
       </c>
@@ -15303,7 +15388,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>4</v>
       </c>
@@ -15317,7 +15402,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -15331,7 +15416,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -15345,7 +15430,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>4</v>
       </c>
@@ -15359,7 +15444,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -15373,7 +15458,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>4</v>
       </c>
@@ -15387,7 +15472,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>4</v>
       </c>
@@ -15401,7 +15486,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -15415,7 +15500,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -15429,7 +15514,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -15443,7 +15528,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>867</v>
       </c>
@@ -15457,7 +15542,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1341</v>
       </c>
@@ -15471,7 +15556,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>847</v>
       </c>
@@ -15485,7 +15570,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>919</v>
       </c>
@@ -15499,7 +15584,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>2998</v>
       </c>
@@ -15513,7 +15598,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>3010</v>
       </c>
@@ -15527,7 +15612,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>176</v>
       </c>
@@ -15541,7 +15626,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1742</v>
       </c>
@@ -15555,7 +15640,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>2282</v>
       </c>
@@ -15569,7 +15654,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>693</v>
       </c>
@@ -15583,7 +15668,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>2725</v>
       </c>
@@ -15597,7 +15682,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1724</v>
       </c>
@@ -15611,7 +15696,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>2605</v>
       </c>
@@ -15625,7 +15710,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>423</v>
       </c>
@@ -15639,7 +15724,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>2394</v>
       </c>
@@ -15653,7 +15738,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1373</v>
       </c>
@@ -15667,7 +15752,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>734</v>
       </c>
@@ -15681,7 +15766,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1981</v>
       </c>
@@ -15695,7 +15780,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>609</v>
       </c>
@@ -15709,7 +15794,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1345</v>
       </c>
@@ -15723,7 +15808,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1965</v>
       </c>
@@ -15737,7 +15822,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>2504</v>
       </c>
@@ -15751,7 +15836,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1959</v>
       </c>
@@ -15765,7 +15850,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>613</v>
       </c>
@@ -15779,7 +15864,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1973</v>
       </c>
@@ -15793,7 +15878,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1955</v>
       </c>
@@ -15807,7 +15892,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1674</v>
       </c>
@@ -15821,7 +15906,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>2846</v>
       </c>
@@ -15835,7 +15920,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>2649</v>
       </c>
@@ -15849,7 +15934,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1562</v>
       </c>
@@ -15863,7 +15948,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1969</v>
       </c>
@@ -15877,7 +15962,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>159</v>
       </c>
@@ -15891,7 +15976,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>760</v>
       </c>
@@ -15905,7 +15990,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>345</v>
       </c>
@@ -15919,7 +16004,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1102</v>
       </c>
@@ -15933,7 +16018,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1090</v>
       </c>
@@ -15947,7 +16032,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>309</v>
       </c>
@@ -15961,7 +16046,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>2871</v>
       </c>
@@ -15975,7 +16060,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1795</v>
       </c>
@@ -15989,7 +16074,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1086</v>
       </c>
@@ -16003,7 +16088,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1285</v>
       </c>
@@ -16017,7 +16102,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>301</v>
       </c>
@@ -16031,7 +16116,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>3055</v>
       </c>
@@ -16045,7 +16130,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>927</v>
       </c>
@@ -16059,7 +16144,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>219</v>
       </c>
@@ -16073,7 +16158,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>381</v>
       </c>
@@ -16087,7 +16172,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>393</v>
       </c>
@@ -16101,7 +16186,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1349</v>
       </c>
@@ -16115,7 +16200,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>2340</v>
       </c>
@@ -16129,7 +16214,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>2677</v>
       </c>
@@ -16143,7 +16228,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>2336</v>
       </c>
@@ -16157,7 +16242,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>2346</v>
       </c>
@@ -16171,7 +16256,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>2015</v>
       </c>
@@ -16185,7 +16270,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>2223</v>
       </c>
@@ -16199,7 +16284,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>191</v>
       </c>
@@ -16213,7 +16298,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>385</v>
       </c>
@@ -16227,7 +16312,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>589</v>
       </c>
@@ -16241,7 +16326,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>2229</v>
       </c>
@@ -16255,7 +16340,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>147</v>
       </c>
@@ -16269,7 +16354,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1883</v>
       </c>
@@ -16283,7 +16368,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1935</v>
       </c>
@@ -16297,7 +16382,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1337</v>
       </c>
@@ -16311,7 +16396,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1853</v>
       </c>
@@ -16325,7 +16410,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1586</v>
       </c>
@@ -16339,7 +16424,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1210</v>
       </c>
@@ -16353,7 +16438,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1861</v>
       </c>
@@ -16367,7 +16452,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1582</v>
       </c>
@@ -16381,7 +16466,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1865</v>
       </c>
@@ -16395,7 +16480,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>681</v>
       </c>
@@ -16409,7 +16494,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>2007</v>
       </c>
@@ -16423,7 +16508,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>108</v>
       </c>
@@ -16437,7 +16522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>461</v>
       </c>
@@ -16451,7 +16536,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1578</v>
       </c>
@@ -16465,7 +16550,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1361</v>
       </c>
@@ -16479,7 +16564,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>915</v>
       </c>
@@ -16493,7 +16578,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>3079</v>
       </c>
@@ -16507,7 +16592,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1682</v>
       </c>
@@ -16521,7 +16606,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>163</v>
       </c>
@@ -16535,7 +16620,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>353</v>
       </c>
@@ -16549,7 +16634,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>2480</v>
       </c>
@@ -16563,7 +16648,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1566</v>
       </c>
@@ -16577,7 +16662,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>2844</v>
       </c>
@@ -16591,7 +16676,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1214</v>
       </c>
@@ -16605,7 +16690,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1289</v>
       </c>
@@ -16619,7 +16704,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1895</v>
       </c>
@@ -16633,7 +16718,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>2484</v>
       </c>
@@ -16647,7 +16732,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1094</v>
       </c>
@@ -16661,7 +16746,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1178</v>
       </c>
@@ -16675,7 +16760,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>517</v>
       </c>
@@ -16689,7 +16774,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1770</v>
       </c>
@@ -16703,7 +16788,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>2101</v>
       </c>
@@ -16717,7 +16802,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1618</v>
       </c>
@@ -16731,7 +16816,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1570</v>
       </c>
@@ -16745,7 +16830,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>497</v>
       </c>
@@ -16759,7 +16844,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>601</v>
       </c>
@@ -16773,7 +16858,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>2763</v>
       </c>
@@ -16787,7 +16872,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1333</v>
       </c>
@@ -16801,7 +16886,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1614</v>
       </c>
@@ -16815,7 +16900,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>2599</v>
       </c>
@@ -16829,7 +16914,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>3028</v>
       </c>
@@ -16843,7 +16928,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1">
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -16857,7 +16942,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -16871,7 +16956,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>4</v>
       </c>
@@ -16885,7 +16970,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>4</v>
       </c>
@@ -16899,7 +16984,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>983</v>
       </c>
@@ -16913,7 +16998,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1269</v>
       </c>
@@ -16927,7 +17012,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1241</v>
       </c>
@@ -16941,7 +17026,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1891</v>
       </c>
@@ -16955,7 +17040,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1138</v>
       </c>
@@ -16969,7 +17054,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>705</v>
       </c>
@@ -16983,7 +17068,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1887</v>
       </c>
@@ -16997,7 +17082,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>2177</v>
       </c>
@@ -17011,7 +17096,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1837</v>
       </c>
@@ -17025,7 +17110,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1206</v>
       </c>
@@ -17039,7 +17124,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1114</v>
       </c>
@@ -17053,7 +17138,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1417</v>
       </c>
@@ -17067,7 +17152,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>2107</v>
       </c>
@@ -17081,7 +17166,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>2500</v>
       </c>
@@ -17095,7 +17180,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>2476</v>
       </c>
@@ -17109,7 +17194,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1626</v>
       </c>
@@ -17123,7 +17208,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>4</v>
       </c>
@@ -17137,7 +17222,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>4</v>
       </c>
@@ -17151,7 +17236,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>4</v>
       </c>
@@ -17165,7 +17250,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>4</v>
       </c>
@@ -17179,7 +17264,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>4</v>
       </c>
@@ -17193,7 +17278,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>4</v>
       </c>
@@ -17207,7 +17292,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>4</v>
       </c>
@@ -17221,7 +17306,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>2840</v>
       </c>
@@ -17235,7 +17320,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1538</v>
       </c>
@@ -17249,7 +17334,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>2496</v>
       </c>
@@ -17263,7 +17348,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>2535</v>
       </c>
@@ -17277,7 +17362,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1610</v>
       </c>
@@ -17291,7 +17376,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>2539</v>
       </c>
@@ -17305,7 +17390,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>2241</v>
       </c>
@@ -17319,7 +17404,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>4</v>
       </c>
@@ -17333,7 +17418,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>4</v>
       </c>
@@ -17347,7 +17432,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1142</v>
       </c>
@@ -17361,7 +17446,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>4</v>
       </c>
@@ -17375,7 +17460,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>4</v>
       </c>
@@ -17389,7 +17474,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>4</v>
       </c>
@@ -17403,7 +17488,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>561</v>
       </c>
@@ -17417,7 +17502,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1999</v>
       </c>
@@ -17431,7 +17516,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1369</v>
       </c>
@@ -17445,7 +17530,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>2153</v>
       </c>
@@ -17459,7 +17544,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1162</v>
       </c>
@@ -17473,7 +17558,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>2468</v>
       </c>
@@ -17487,7 +17572,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>2508</v>
       </c>
@@ -17501,7 +17586,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>2543</v>
       </c>
@@ -17515,7 +17600,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1118</v>
       </c>
@@ -17529,7 +17614,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1122</v>
       </c>
@@ -17543,7 +17628,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>800</v>
       </c>
@@ -17557,7 +17642,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1845</v>
       </c>
@@ -17571,7 +17656,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1297</v>
       </c>
@@ -17585,7 +17670,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1130</v>
       </c>
@@ -17599,7 +17684,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>3002</v>
       </c>
@@ -17613,7 +17698,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>2759</v>
       </c>
@@ -17627,7 +17712,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>2219</v>
       </c>
@@ -17641,7 +17726,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>369</v>
       </c>
@@ -17655,7 +17740,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>2488</v>
       </c>
@@ -17669,7 +17754,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>999</v>
       </c>
@@ -17683,7 +17768,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>2328</v>
       </c>
@@ -17697,7 +17782,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>2897</v>
       </c>
@@ -17711,7 +17796,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1841</v>
       </c>
@@ -17725,7 +17810,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1606</v>
       </c>
@@ -17739,7 +17824,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1305</v>
       </c>
@@ -17753,7 +17838,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>247</v>
       </c>
@@ -17767,7 +17852,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>961</v>
       </c>
@@ -17781,7 +17866,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>2400</v>
       </c>
@@ -17795,7 +17880,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>521</v>
       </c>
@@ -17809,7 +17894,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>297</v>
       </c>
@@ -17823,7 +17908,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>2173</v>
       </c>
@@ -17837,7 +17922,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1762</v>
       </c>
@@ -17851,7 +17936,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>85</v>
       </c>
@@ -17865,7 +17950,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>987</v>
       </c>
@@ -17879,7 +17964,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>633</v>
       </c>
@@ -17893,7 +17978,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1079</v>
       </c>
@@ -17907,7 +17992,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>397</v>
       </c>
@@ -17921,7 +18006,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>4</v>
       </c>
@@ -17935,7 +18020,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1031</v>
       </c>
@@ -17949,7 +18034,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1">
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>4</v>
       </c>
@@ -17963,7 +18048,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1">
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>4</v>
       </c>
@@ -17977,7 +18062,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>2233</v>
       </c>
@@ -17991,7 +18076,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1397</v>
       </c>
@@ -18005,7 +18090,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1">
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>4</v>
       </c>
@@ -18019,7 +18104,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1">
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>4</v>
       </c>
@@ -18033,7 +18118,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1">
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>4</v>
       </c>
@@ -18047,7 +18132,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1">
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>4</v>
       </c>
@@ -18061,7 +18146,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1">
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>4</v>
       </c>
@@ -18075,7 +18160,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>4</v>
       </c>
@@ -18089,7 +18174,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>4</v>
       </c>
@@ -18103,7 +18188,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1">
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>4</v>
       </c>
@@ -18117,7 +18202,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>565</v>
       </c>
@@ -18131,7 +18216,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>78</v>
       </c>
@@ -18145,7 +18230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>3083</v>
       </c>
@@ -18159,7 +18244,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1245</v>
       </c>
@@ -18173,7 +18258,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1710</v>
       </c>
@@ -18187,7 +18272,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1385</v>
       </c>
@@ -18201,7 +18286,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>3174</v>
       </c>
@@ -18215,7 +18300,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>2195</v>
       </c>
@@ -18229,7 +18314,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>373</v>
       </c>
@@ -18243,7 +18328,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1">
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>4</v>
       </c>
@@ -18257,7 +18342,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>4</v>
       </c>
@@ -18271,7 +18356,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1441</v>
       </c>
@@ -18285,7 +18370,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>2531</v>
       </c>
@@ -18299,7 +18384,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>2741</v>
       </c>
@@ -18313,7 +18398,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>2673</v>
       </c>
@@ -18327,7 +18412,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1">
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>4</v>
       </c>
@@ -18341,7 +18426,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1015</v>
       </c>
@@ -18355,7 +18440,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1055</v>
       </c>
@@ -18369,7 +18454,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>184</v>
       </c>
@@ -18383,7 +18468,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>2077</v>
       </c>
@@ -18397,7 +18482,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1554</v>
       </c>
@@ -18411,7 +18496,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1460</v>
       </c>
@@ -18425,7 +18510,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1182</v>
       </c>
@@ -18439,7 +18524,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1">
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>4</v>
       </c>
@@ -18453,7 +18538,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1">
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>4</v>
       </c>
@@ -18467,7 +18552,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1">
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>4</v>
       </c>
@@ -18481,7 +18566,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1">
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>4</v>
       </c>
@@ -18495,7 +18580,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1">
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>4</v>
       </c>
@@ -18509,7 +18594,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1">
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>4</v>
       </c>
@@ -18523,7 +18608,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1">
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>4</v>
       </c>
@@ -18537,7 +18622,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>871</v>
       </c>
@@ -18551,7 +18636,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>2360</v>
       </c>
@@ -18565,7 +18650,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>3073</v>
       </c>
@@ -18579,7 +18664,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>577</v>
       </c>
@@ -18593,7 +18678,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1">
+    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>4</v>
       </c>
@@ -18607,7 +18692,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1738</v>
       </c>
@@ -18621,7 +18706,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1466</v>
       </c>
@@ -18635,7 +18720,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1">
+    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>4</v>
       </c>
@@ -18649,7 +18734,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1">
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>4</v>
       </c>
@@ -18663,7 +18748,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1">
+    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>4</v>
       </c>
@@ -18677,7 +18762,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1">
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>4</v>
       </c>
@@ -18691,7 +18776,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>3036</v>
       </c>
@@ -18705,7 +18790,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1413</v>
       </c>
@@ -18719,7 +18804,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>3164</v>
       </c>
@@ -18733,7 +18818,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>72</v>
       </c>
@@ -18747,7 +18832,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>663</v>
       </c>
@@ -18761,7 +18846,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1">
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>4</v>
       </c>
@@ -18775,7 +18860,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1">
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>4</v>
       </c>
@@ -18789,7 +18874,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>3264</v>
       </c>
@@ -18803,7 +18888,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1">
+    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>4</v>
       </c>
@@ -18817,7 +18902,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1">
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>4</v>
       </c>
@@ -18831,7 +18916,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1">
+    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>4</v>
       </c>
@@ -18845,7 +18930,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1">
+    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>4</v>
       </c>
@@ -18859,7 +18944,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>553</v>
       </c>
@@ -18873,7 +18958,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>3178</v>
       </c>
@@ -18887,7 +18972,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1">
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>4</v>
       </c>
@@ -18901,7 +18986,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1">
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>4</v>
       </c>
@@ -18915,7 +19000,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>937</v>
       </c>
@@ -18929,7 +19014,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>780</v>
       </c>
@@ -18943,7 +19028,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>195</v>
       </c>
@@ -18957,7 +19042,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>941</v>
       </c>
@@ -18971,7 +19056,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1043</v>
       </c>
@@ -18985,7 +19070,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1325</v>
       </c>
@@ -18999,7 +19084,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1">
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>4</v>
       </c>
@@ -19013,7 +19098,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1">
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>4</v>
       </c>
@@ -19027,7 +19112,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>92</v>
       </c>
@@ -19041,7 +19126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1281</v>
       </c>
@@ -19055,7 +19140,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>569</v>
       </c>
@@ -19069,7 +19154,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1039</v>
       </c>
@@ -19083,7 +19168,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1666</v>
       </c>
@@ -19097,7 +19182,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1">
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>4</v>
       </c>
@@ -19111,7 +19196,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>235</v>
       </c>
@@ -19125,7 +19210,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>637</v>
       </c>
@@ -19139,7 +19224,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1803</v>
       </c>
@@ -19153,7 +19238,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>740</v>
       </c>
@@ -19167,7 +19252,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>68</v>
       </c>
@@ -19181,7 +19266,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>3102</v>
       </c>
@@ -19195,7 +19280,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1807</v>
       </c>
@@ -19209,7 +19294,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>401</v>
       </c>
@@ -19223,7 +19308,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>2191</v>
       </c>
@@ -19237,7 +19322,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1502</v>
       </c>
@@ -19251,7 +19336,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1">
+    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>4</v>
       </c>
@@ -19265,7 +19350,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>2278</v>
       </c>
@@ -19279,7 +19364,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1">
+    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>4</v>
       </c>
@@ -19293,7 +19378,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="566" spans="1:4" hidden="1">
+    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>4</v>
       </c>
@@ -19307,7 +19392,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>796</v>
       </c>
@@ -19321,7 +19406,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>776</v>
       </c>
@@ -19335,7 +19420,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>2147</v>
       </c>
@@ -19349,7 +19434,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1">
+    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>4</v>
       </c>
@@ -19363,7 +19448,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1">
+    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>4</v>
       </c>
@@ -19377,7 +19462,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1">
+    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>4</v>
       </c>
@@ -19391,7 +19476,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1">
+    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>4</v>
       </c>
@@ -19405,7 +19490,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>253</v>
       </c>
@@ -19419,7 +19504,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1706</v>
       </c>
@@ -19433,7 +19518,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1995</v>
       </c>
@@ -19447,7 +19532,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>2775</v>
       </c>
@@ -19461,7 +19546,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1">
+    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>4</v>
       </c>
@@ -19475,7 +19560,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1051</v>
       </c>
@@ -19489,7 +19574,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1174</v>
       </c>
@@ -19503,7 +19588,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1518</v>
       </c>
@@ -19517,7 +19602,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>2416</v>
       </c>
@@ -19531,7 +19616,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>114</v>
       </c>
@@ -19545,7 +19630,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>709</v>
       </c>
@@ -19559,7 +19644,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>325</v>
       </c>
@@ -19573,7 +19658,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1">
+    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>4</v>
       </c>
@@ -19587,7 +19672,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1931</v>
       </c>
@@ -19601,7 +19686,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1233</v>
       </c>
@@ -19615,7 +19700,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>581</v>
       </c>
@@ -19629,7 +19714,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>365</v>
       </c>
@@ -19643,7 +19728,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1261</v>
       </c>
@@ -19657,7 +19742,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>895</v>
       </c>
@@ -19671,7 +19756,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>537</v>
       </c>
@@ -19685,7 +19770,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>2749</v>
       </c>
@@ -19699,7 +19784,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1253</v>
       </c>
@@ -19713,7 +19798,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1622</v>
       </c>
@@ -19727,7 +19812,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>2631</v>
       </c>
@@ -19741,7 +19826,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1">
+    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>4</v>
       </c>
@@ -19755,7 +19840,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1">
+    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>4</v>
       </c>
@@ -19769,7 +19854,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>2785</v>
       </c>
@@ -19783,7 +19868,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1">
+    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>4</v>
       </c>
@@ -19797,7 +19882,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1265</v>
       </c>
@@ -19811,7 +19896,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1650</v>
       </c>
@@ -19825,7 +19910,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>784</v>
       </c>
@@ -19839,7 +19924,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1">
+    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>4</v>
       </c>
@@ -19853,7 +19938,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1">
+    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>4</v>
       </c>
@@ -19867,7 +19952,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1">
+    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>4</v>
       </c>
@@ -19881,7 +19966,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1">
+    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>4</v>
       </c>
@@ -19895,7 +19980,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1">
+    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>4</v>
       </c>
@@ -19909,7 +19994,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1">
+    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>4</v>
       </c>
@@ -19923,7 +20008,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1">
+    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>4</v>
       </c>
@@ -19937,7 +20022,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1">
+    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>4</v>
       </c>
@@ -19951,7 +20036,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1">
+    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>4</v>
       </c>
@@ -19965,7 +20050,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>726</v>
       </c>
@@ -19979,7 +20064,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1249</v>
       </c>
@@ -19993,7 +20078,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>557</v>
       </c>
@@ -20007,7 +20092,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>3006</v>
       </c>
@@ -20021,7 +20106,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1218</v>
       </c>
@@ -20035,7 +20120,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1686</v>
       </c>
@@ -20049,7 +20134,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1478</v>
       </c>
@@ -20063,7 +20148,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1">
+    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>4</v>
       </c>
@@ -20077,7 +20162,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>629</v>
       </c>
@@ -20091,7 +20176,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1">
+    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>4</v>
       </c>
@@ -20105,7 +20190,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1">
+    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>4</v>
       </c>
@@ -20119,7 +20204,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1">
+    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>4</v>
       </c>
@@ -20133,7 +20218,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1">
+    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>4</v>
       </c>
@@ -20147,7 +20232,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1">
+    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>4</v>
       </c>
@@ -20161,7 +20246,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>2806</v>
       </c>
@@ -20175,7 +20260,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1">
+    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>4</v>
       </c>
@@ -20189,7 +20274,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1">
+    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>4</v>
       </c>
@@ -20203,7 +20288,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1915</v>
       </c>
@@ -20217,7 +20302,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>2669</v>
       </c>
@@ -20231,7 +20316,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>261</v>
       </c>
@@ -20245,7 +20330,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>477</v>
       </c>
@@ -20259,7 +20344,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1">
+    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>4</v>
       </c>
@@ -20273,7 +20358,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>949</v>
       </c>
@@ -20287,7 +20372,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>489</v>
       </c>
@@ -20301,7 +20386,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>389</v>
       </c>
@@ -20315,7 +20400,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>836</v>
       </c>
@@ -20329,7 +20414,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1488</v>
       </c>
@@ -20343,7 +20428,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1019</v>
       </c>
@@ -20357,7 +20442,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1321</v>
       </c>
@@ -20371,7 +20456,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>341</v>
       </c>
@@ -20385,7 +20470,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>2356</v>
       </c>
@@ -20399,7 +20484,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1542</v>
       </c>
@@ -20413,7 +20498,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>525</v>
       </c>
@@ -20427,7 +20512,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1">
+    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>4</v>
       </c>
@@ -20441,7 +20526,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1">
+    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>4</v>
       </c>
@@ -20455,7 +20540,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1">
+    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>4</v>
       </c>
@@ -20469,7 +20554,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>2085</v>
       </c>
@@ -20483,7 +20568,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1791</v>
       </c>
@@ -20497,7 +20582,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1">
+    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>4</v>
       </c>
@@ -20511,7 +20596,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1">
+    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>4</v>
       </c>
@@ -20525,7 +20610,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>2027</v>
       </c>
@@ -20539,7 +20624,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1">
+    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>4</v>
       </c>
@@ -20553,7 +20638,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>2031</v>
       </c>
@@ -20567,7 +20652,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1498</v>
       </c>
@@ -20581,7 +20666,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1">
+    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>4</v>
       </c>
@@ -20595,7 +20680,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1558</v>
       </c>
@@ -20609,7 +20694,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1317</v>
       </c>
@@ -20623,7 +20708,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>2089</v>
       </c>
@@ -20637,7 +20722,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1">
+    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>4</v>
       </c>
@@ -20651,7 +20736,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>2290</v>
       </c>
@@ -20665,7 +20750,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>2917</v>
       </c>
@@ -20679,7 +20764,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1377</v>
       </c>
@@ -20693,7 +20778,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>2211</v>
       </c>
@@ -20707,7 +20792,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>2366</v>
       </c>
@@ -20721,7 +20806,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1">
+    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>4</v>
       </c>
@@ -20735,7 +20820,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1">
+    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>4</v>
       </c>
@@ -20749,7 +20834,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1">
+    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>4</v>
       </c>
@@ -20763,7 +20848,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1">
+    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>4</v>
       </c>
@@ -20777,7 +20862,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1">
+    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>4</v>
       </c>
@@ -20791,7 +20876,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1">
+    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>4</v>
       </c>
@@ -20805,7 +20890,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1">
+    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>4</v>
       </c>
@@ -20819,7 +20904,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1">
+    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>4</v>
       </c>
@@ -20833,7 +20918,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1">
+    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>4</v>
       </c>
@@ -20847,7 +20932,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>2181</v>
       </c>
@@ -20861,7 +20946,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>231</v>
       </c>
@@ -20875,7 +20960,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>2791</v>
       </c>
@@ -20889,7 +20974,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>730</v>
       </c>
@@ -20903,7 +20988,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1857</v>
       </c>
@@ -20917,7 +21002,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>289</v>
       </c>
@@ -20931,7 +21016,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1718</v>
       </c>
@@ -20945,7 +21030,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>223</v>
       </c>
@@ -20959,7 +21044,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1">
+    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>4</v>
       </c>
@@ -20973,7 +21058,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1">
+    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>4</v>
       </c>
@@ -20987,7 +21072,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1">
+    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>4</v>
       </c>
@@ -21001,7 +21086,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>764</v>
       </c>
@@ -21015,7 +21100,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>3186</v>
       </c>
@@ -21029,7 +21114,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>2591</v>
       </c>
@@ -21043,7 +21128,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1">
+    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>2879</v>
       </c>
@@ -21057,7 +21142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>814</v>
       </c>
@@ -21071,7 +21156,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="693" spans="1:4" hidden="1">
+    <row r="693" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>4</v>
       </c>
@@ -21085,7 +21170,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1">
+    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>4</v>
       </c>
@@ -21099,7 +21184,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>285</v>
       </c>
@@ -21113,7 +21198,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1445</v>
       </c>
@@ -21127,7 +21212,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1071</v>
       </c>
@@ -21141,7 +21226,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1405</v>
       </c>
@@ -21155,7 +21240,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="699" spans="1:4" hidden="1">
+    <row r="699" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>4</v>
       </c>
@@ -21169,7 +21254,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>2266</v>
       </c>
@@ -21183,7 +21268,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>227</v>
       </c>
@@ -21197,7 +21282,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1">
+    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>4</v>
       </c>
@@ -21211,7 +21296,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1222</v>
       </c>
@@ -21225,7 +21310,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>3202</v>
       </c>
@@ -21239,7 +21324,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1">
+    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>4</v>
       </c>
@@ -21253,7 +21338,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1">
+    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>4</v>
       </c>
@@ -21267,7 +21352,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1530</v>
       </c>
@@ -21281,7 +21366,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="708" spans="1:4" hidden="1">
+    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>4</v>
       </c>
@@ -21295,7 +21380,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1775</v>
       </c>
@@ -21309,7 +21394,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1">
+    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>4</v>
       </c>
@@ -21323,7 +21408,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1">
+    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>4</v>
       </c>
@@ -21337,7 +21422,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1">
+    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>4</v>
       </c>
@@ -21351,7 +21436,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>621</v>
       </c>
@@ -21365,7 +21450,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1">
+    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>4</v>
       </c>
@@ -21379,7 +21464,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1">
+    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>4</v>
       </c>
@@ -21393,7 +21478,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>65</v>
       </c>
@@ -21407,7 +21492,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>2852</v>
       </c>
@@ -21421,7 +21506,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>481</v>
       </c>
@@ -21435,7 +21520,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1">
+    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>4</v>
       </c>
@@ -21449,7 +21534,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1067</v>
       </c>
@@ -21463,7 +21548,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1">
+    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>4</v>
       </c>
@@ -21477,7 +21562,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1">
+    <row r="722" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>4</v>
       </c>
@@ -21491,7 +21576,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1">
+    <row r="723" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>4</v>
       </c>
@@ -21505,7 +21590,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1813</v>
       </c>
@@ -21519,7 +21604,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1">
+    <row r="725" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>4</v>
       </c>
@@ -21533,7 +21618,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1226</v>
       </c>
@@ -21547,7 +21632,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>2003</v>
       </c>
@@ -21561,7 +21646,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1389</v>
       </c>
@@ -21575,7 +21660,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1198</v>
       </c>
@@ -21589,7 +21674,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1">
+    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>4</v>
       </c>
@@ -21603,7 +21688,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1877</v>
       </c>
@@ -21617,7 +21702,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1">
+    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>4</v>
       </c>
@@ -21631,7 +21716,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1">
+    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>4</v>
       </c>
@@ -21645,7 +21730,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>2446</v>
       </c>
@@ -21659,7 +21744,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>2137</v>
       </c>
@@ -21673,7 +21758,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1">
+    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>4</v>
       </c>
@@ -21687,7 +21772,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>1277</v>
       </c>
@@ -21701,7 +21786,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="738" spans="1:4" hidden="1">
+    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>4</v>
       </c>
@@ -21715,7 +21800,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="739" spans="1:4" hidden="1">
+    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>4</v>
       </c>
@@ -21729,7 +21814,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="740" spans="1:4" hidden="1">
+    <row r="740" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>4</v>
       </c>
@@ -21743,7 +21828,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="741" spans="1:4" hidden="1">
+    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>4</v>
       </c>
@@ -21757,7 +21842,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="742" spans="1:4" hidden="1">
+    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>4</v>
       </c>
@@ -21771,7 +21856,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>2828</v>
       </c>
@@ -21785,7 +21870,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="744" spans="1:4" hidden="1">
+    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>4</v>
       </c>
@@ -21799,7 +21884,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>2332</v>
       </c>
@@ -21813,7 +21898,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>2316</v>
       </c>
@@ -21827,7 +21912,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>2320</v>
       </c>
@@ -21841,7 +21926,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="748" spans="1:4">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>995</v>
       </c>
@@ -21855,7 +21940,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>1301</v>
       </c>
@@ -21869,7 +21954,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>887</v>
       </c>
@@ -21883,7 +21968,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>2081</v>
       </c>
@@ -21897,7 +21982,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>243</v>
       </c>
@@ -21911,7 +21996,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>2011</v>
       </c>
@@ -21925,7 +22010,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>2201</v>
       </c>
@@ -21939,7 +22024,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>1766</v>
       </c>
@@ -21953,7 +22038,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="756" spans="1:4" hidden="1">
+    <row r="756" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>4</v>
       </c>
@@ -21967,7 +22052,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="757" spans="1:4" hidden="1">
+    <row r="757" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>4</v>
       </c>
@@ -21981,7 +22066,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>120</v>
       </c>
@@ -21995,7 +22080,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="759" spans="1:4" hidden="1">
+    <row r="759" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>4</v>
       </c>
@@ -22009,7 +22094,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="760" spans="1:4" hidden="1">
+    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>4</v>
       </c>
@@ -22023,7 +22108,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="761" spans="1:4" hidden="1">
+    <row r="761" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>4</v>
       </c>
@@ -22037,7 +22122,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="762" spans="1:4" hidden="1">
+    <row r="762" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>4</v>
       </c>
@@ -22051,7 +22136,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="763" spans="1:4" hidden="1">
+    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>4</v>
       </c>
@@ -22065,7 +22150,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="764" spans="1:4" hidden="1">
+    <row r="764" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>4</v>
       </c>
@@ -22079,7 +22164,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="765" spans="1:4" hidden="1">
+    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>4</v>
       </c>
@@ -22093,7 +22178,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>1911</v>
       </c>
@@ -22107,7 +22192,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>2950</v>
       </c>
@@ -22121,7 +22206,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>529</v>
       </c>
@@ -22135,7 +22220,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>1758</v>
       </c>
@@ -22149,7 +22234,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="770" spans="1:4" hidden="1">
+    <row r="770" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>4</v>
       </c>
@@ -22163,7 +22248,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>501</v>
       </c>
@@ -22177,7 +22262,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>437</v>
       </c>
@@ -22191,7 +22276,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="773" spans="1:4" hidden="1">
+    <row r="773" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>4</v>
       </c>
@@ -22205,7 +22290,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="774" spans="1:4" hidden="1">
+    <row r="774" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>4</v>
       </c>
@@ -22219,7 +22304,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="775" spans="1:4" hidden="1">
+    <row r="775" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>4</v>
       </c>
@@ -22233,7 +22318,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1470</v>
       </c>
@@ -22247,7 +22332,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1">
+    <row r="777" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>4</v>
       </c>
@@ -22261,7 +22346,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="778" spans="1:4" hidden="1">
+    <row r="778" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>4</v>
       </c>
@@ -22275,7 +22360,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="779" spans="1:4" hidden="1">
+    <row r="779" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>4</v>
       </c>
@@ -22289,7 +22374,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="780" spans="1:4" hidden="1">
+    <row r="780" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>4</v>
       </c>
@@ -22303,7 +22388,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="781" spans="1:4" hidden="1">
+    <row r="781" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>4</v>
       </c>
@@ -22317,7 +22402,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="782" spans="1:4">
+    <row r="782" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>3254</v>
       </c>
@@ -22331,7 +22416,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="783" spans="1:4">
+    <row r="783" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>329</v>
       </c>
@@ -22345,7 +22430,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>98</v>
       </c>
@@ -22358,8 +22443,11 @@
       <c r="D784" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="785" spans="1:4">
+      <c r="N784" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>96</v>
       </c>
@@ -22373,7 +22461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>2143</v>
       </c>
@@ -22387,7 +22475,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>1799</v>
       </c>
@@ -22401,7 +22489,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>1899</v>
       </c>
@@ -22415,7 +22503,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1">
+    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>4</v>
       </c>
@@ -22429,7 +22517,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>1630</v>
       </c>
@@ -22443,7 +22531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1">
+    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>4</v>
       </c>
@@ -22457,7 +22545,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="792" spans="1:4">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1230</v>
       </c>
@@ -22471,7 +22559,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1">
+    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>4</v>
       </c>
@@ -22485,7 +22573,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1">
+    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>4</v>
       </c>
@@ -22499,7 +22587,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>2472</v>
       </c>
@@ -22513,7 +22601,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>199</v>
       </c>
@@ -22527,7 +22615,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="797" spans="1:4" hidden="1">
+    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>4</v>
       </c>
@@ -22541,7 +22629,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="798" spans="1:4" hidden="1">
+    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>4</v>
       </c>
@@ -22555,7 +22643,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>377</v>
       </c>
@@ -22569,7 +22657,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="800" spans="1:4" hidden="1">
+    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>4</v>
       </c>
@@ -22583,7 +22671,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="801" spans="1:4" hidden="1">
+    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>4</v>
       </c>
@@ -22597,7 +22685,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="802" spans="1:4" hidden="1">
+    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>4</v>
       </c>
@@ -22611,7 +22699,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="803" spans="1:4" hidden="1">
+    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>4</v>
       </c>
@@ -22625,7 +22713,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="804" spans="1:4" hidden="1">
+    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>4</v>
       </c>
@@ -22639,7 +22727,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="805" spans="1:4" hidden="1">
+    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>4</v>
       </c>
@@ -22653,7 +22741,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="806" spans="1:4" hidden="1">
+    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>4</v>
       </c>
@@ -22667,11 +22755,11 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="807" spans="1:4">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>105</v>
       </c>
-      <c r="B807" t="s">
+      <c r="B807" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C807" t="s">
@@ -22681,7 +22769,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="808" spans="1:4">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1869</v>
       </c>
@@ -22695,7 +22783,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="809" spans="1:4" hidden="1">
+    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>4</v>
       </c>
@@ -22709,7 +22797,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="810" spans="1:4" hidden="1">
+    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>4</v>
       </c>
@@ -22723,7 +22811,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="811" spans="1:4" hidden="1">
+    <row r="811" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>4</v>
       </c>
@@ -22737,7 +22825,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="812" spans="1:4" hidden="1">
+    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>4</v>
       </c>
@@ -22751,7 +22839,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="813" spans="1:4" hidden="1">
+    <row r="813" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>4</v>
       </c>
@@ -22765,7 +22853,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="814" spans="1:4" hidden="1">
+    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>4</v>
       </c>
@@ -22779,7 +22867,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="815" spans="1:4" hidden="1">
+    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>4</v>
       </c>
@@ -22793,7 +22881,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="816" spans="1:4" hidden="1">
+    <row r="816" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>4</v>
       </c>
@@ -22807,7 +22895,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="817" spans="1:4" hidden="1">
+    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>4</v>
       </c>
@@ -22821,7 +22909,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="818" spans="1:4">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>3061</v>
       </c>
@@ -22835,7 +22923,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="819" spans="1:4">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>2097</v>
       </c>
@@ -22849,7 +22937,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="820" spans="1:4">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>1126</v>
       </c>
@@ -22863,7 +22951,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="821" spans="1:4">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>1027</v>
       </c>
@@ -22877,7 +22965,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="822" spans="1:4" hidden="1">
+    <row r="822" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>4</v>
       </c>
@@ -22891,7 +22979,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="823" spans="1:4" hidden="1">
+    <row r="823" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>4</v>
       </c>
@@ -22905,7 +22993,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="824" spans="1:4" hidden="1">
+    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>4</v>
       </c>
@@ -22919,7 +23007,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="825" spans="1:4">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>170</v>
       </c>
@@ -22933,7 +23021,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="826" spans="1:4" hidden="1">
+    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>4</v>
       </c>
@@ -22947,7 +23035,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="827" spans="1:4" hidden="1">
+    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>4</v>
       </c>
@@ -22961,7 +23049,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="828" spans="1:4" hidden="1">
+    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>4</v>
       </c>
@@ -22975,7 +23063,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="829" spans="1:4">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>772</v>
       </c>
@@ -22989,7 +23077,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="830" spans="1:4" hidden="1">
+    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>4</v>
       </c>
@@ -23003,7 +23091,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="831" spans="1:4" hidden="1">
+    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>4</v>
       </c>
@@ -23017,7 +23105,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="832" spans="1:4" hidden="1">
+    <row r="832" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>4</v>
       </c>
@@ -23031,7 +23119,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="833" spans="1:4" hidden="1">
+    <row r="833" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>4</v>
       </c>
@@ -23045,7 +23133,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="834" spans="1:4" hidden="1">
+    <row r="834" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>4</v>
       </c>
@@ -23059,7 +23147,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="835" spans="1:4" hidden="1">
+    <row r="835" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>4</v>
       </c>
@@ -23073,7 +23161,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="836" spans="1:4" hidden="1">
+    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>4</v>
       </c>
@@ -23087,7 +23175,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="837" spans="1:4">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>251</v>
       </c>
@@ -23101,7 +23189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="838" spans="1:4">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>1903</v>
       </c>
@@ -23115,7 +23203,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="839" spans="1:4" hidden="1">
+    <row r="839" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>4</v>
       </c>
@@ -23129,7 +23217,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="840" spans="1:4" hidden="1">
+    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>4</v>
       </c>
@@ -23143,7 +23231,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="841" spans="1:4">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>1409</v>
       </c>
@@ -23157,7 +23245,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="842" spans="1:4" hidden="1">
+    <row r="842" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>4</v>
       </c>
@@ -23171,7 +23259,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="843" spans="1:4">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>991</v>
       </c>
@@ -23185,7 +23273,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="844" spans="1:4">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>180</v>
       </c>
@@ -23199,7 +23287,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="845" spans="1:4" hidden="1">
+    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>4</v>
       </c>
@@ -23213,7 +23301,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="846" spans="1:4">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>1170</v>
       </c>
@@ -23227,7 +23315,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="847" spans="1:4" hidden="1">
+    <row r="847" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>4</v>
       </c>
@@ -23241,7 +23329,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="848" spans="1:4" hidden="1">
+    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>4</v>
       </c>
@@ -23255,7 +23343,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="849" spans="1:4">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>257</v>
       </c>
@@ -23269,7 +23357,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="850" spans="1:4">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>2553</v>
       </c>
@@ -23283,7 +23371,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="851" spans="1:4" hidden="1">
+    <row r="851" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>4</v>
       </c>
@@ -23297,7 +23385,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="852" spans="1:4">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>1433</v>
       </c>
@@ -23311,7 +23399,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="853" spans="1:4">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>832</v>
       </c>
@@ -23325,7 +23413,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="854" spans="1:4" hidden="1">
+    <row r="854" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>4</v>
       </c>
@@ -23339,7 +23427,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="855" spans="1:4" hidden="1">
+    <row r="855" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>4</v>
       </c>
@@ -23353,7 +23441,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="856" spans="1:4" hidden="1">
+    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>4</v>
       </c>
@@ -23367,7 +23455,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="857" spans="1:4">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>1154</v>
       </c>
@@ -23381,7 +23469,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="858" spans="1:4">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>493</v>
       </c>
@@ -23395,7 +23483,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="859" spans="1:4" hidden="1">
+    <row r="859" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>4</v>
       </c>
@@ -23409,7 +23497,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="860" spans="1:4" hidden="1">
+    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>4</v>
       </c>
@@ -23423,7 +23511,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="861" spans="1:4" hidden="1">
+    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>4</v>
       </c>
@@ -23437,7 +23525,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="862" spans="1:4">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>863</v>
       </c>
@@ -23451,7 +23539,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="863" spans="1:4" hidden="1">
+    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>4</v>
       </c>
@@ -23465,7 +23553,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="864" spans="1:4">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>1401</v>
       </c>
@@ -23479,7 +23567,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="865" spans="1:4">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>1110</v>
       </c>
@@ -23493,7 +23581,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="866" spans="1:4" hidden="1">
+    <row r="866" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>4</v>
       </c>
@@ -23507,7 +23595,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="867" spans="1:4" hidden="1">
+    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>4</v>
       </c>
@@ -23521,7 +23609,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="868" spans="1:4" hidden="1">
+    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>4</v>
       </c>
@@ -23535,7 +23623,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="869" spans="1:4" hidden="1">
+    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>4</v>
       </c>
@@ -23549,7 +23637,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="870" spans="1:4">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>2970</v>
       </c>
@@ -23563,7 +23651,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="871" spans="1:4" hidden="1">
+    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>4</v>
       </c>
@@ -23577,7 +23665,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="872" spans="1:4">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>2380</v>
       </c>
@@ -23591,7 +23679,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="873" spans="1:4" hidden="1">
+    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>4</v>
       </c>
@@ -23605,7 +23693,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="874" spans="1:4" hidden="1">
+    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>4</v>
       </c>
@@ -23619,7 +23707,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="875" spans="1:4" hidden="1">
+    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>4</v>
       </c>
@@ -23633,7 +23721,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="876" spans="1:4" hidden="1">
+    <row r="876" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>4</v>
       </c>
@@ -23647,7 +23735,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="877" spans="1:4" hidden="1">
+    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>4</v>
       </c>
@@ -23661,7 +23749,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="878" spans="1:4">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>1919</v>
       </c>
@@ -23675,7 +23763,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="879" spans="1:4">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>211</v>
       </c>
@@ -23689,7 +23777,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="880" spans="1:4">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>2824</v>
       </c>
@@ -23703,7 +23791,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="881" spans="1:4" hidden="1">
+    <row r="881" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>4</v>
       </c>
@@ -23717,7 +23805,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="882" spans="1:4">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>2462</v>
       </c>
@@ -23731,7 +23819,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="883" spans="1:4">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>1873</v>
       </c>
@@ -23745,11 +23833,11 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="884" spans="1:4">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>209</v>
       </c>
-      <c r="B884" t="s">
+      <c r="B884" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C884" t="s">
@@ -23759,11 +23847,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="885" spans="1:4">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>2386</v>
       </c>
-      <c r="B885" t="s">
+      <c r="B885" s="1" t="s">
         <v>2387</v>
       </c>
       <c r="C885" t="s">
@@ -23773,7 +23861,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="886" spans="1:4" hidden="1">
+    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>4</v>
       </c>
@@ -23787,7 +23875,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="887" spans="1:4">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>1007</v>
       </c>
@@ -23801,7 +23889,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="888" spans="1:4" hidden="1">
+    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>4</v>
       </c>
@@ -23815,7 +23903,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="889" spans="1:4" hidden="1">
+    <row r="889" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>4</v>
       </c>
@@ -23829,7 +23917,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="890" spans="1:4" hidden="1">
+    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>4</v>
       </c>
@@ -23843,7 +23931,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="891" spans="1:4" hidden="1">
+    <row r="891" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>4</v>
       </c>
@@ -23857,7 +23945,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="892" spans="1:4" hidden="1">
+    <row r="892" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>4</v>
       </c>
@@ -23871,7 +23959,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="893" spans="1:4" hidden="1">
+    <row r="893" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>4</v>
       </c>
@@ -23885,7 +23973,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="894" spans="1:4">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>1106</v>
       </c>
@@ -23899,7 +23987,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="895" spans="1:4">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>748</v>
       </c>
@@ -23913,11 +24001,11 @@
         <v>751</v>
       </c>
     </row>
-    <row r="896" spans="1:4">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>62</v>
       </c>
-      <c r="B896" t="s">
+      <c r="B896" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C896" t="s">
@@ -23927,7 +24015,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="897" spans="1:4">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>124</v>
       </c>
@@ -23941,7 +24029,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="898" spans="1:4" hidden="1">
+    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>4</v>
       </c>
@@ -23955,7 +24043,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="899" spans="1:4" hidden="1">
+    <row r="899" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>4</v>
       </c>
@@ -23969,7 +24057,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="900" spans="1:4" hidden="1">
+    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>4</v>
       </c>
@@ -23983,7 +24071,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="901" spans="1:4" hidden="1">
+    <row r="901" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>4</v>
       </c>
@@ -23997,7 +24085,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="902" spans="1:4" hidden="1">
+    <row r="902" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>4</v>
       </c>
@@ -24011,7 +24099,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="903" spans="1:4" hidden="1">
+    <row r="903" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>4</v>
       </c>
@@ -24025,7 +24113,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="904" spans="1:4" hidden="1">
+    <row r="904" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>4</v>
       </c>
@@ -24039,7 +24127,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="905" spans="1:4" hidden="1">
+    <row r="905" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>4</v>
       </c>
@@ -24053,7 +24141,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="906" spans="1:4">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>1098</v>
       </c>
@@ -24067,7 +24155,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="907" spans="1:4">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>167</v>
       </c>
@@ -24081,7 +24169,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="908" spans="1:4">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>3095</v>
       </c>
@@ -24095,7 +24183,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="909" spans="1:4" hidden="1">
+    <row r="909" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>4</v>
       </c>
@@ -24109,7 +24197,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="910" spans="1:4" hidden="1">
+    <row r="910" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>4</v>
       </c>
@@ -24123,7 +24211,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="911" spans="1:4" hidden="1">
+    <row r="911" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>4</v>
       </c>
@@ -24137,7 +24225,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="912" spans="1:4" hidden="1">
+    <row r="912" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>4</v>
       </c>
@@ -24151,7 +24239,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="913" spans="1:4">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>419</v>
       </c>
@@ -24165,7 +24253,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="914" spans="1:4" hidden="1">
+    <row r="914" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>4</v>
       </c>
@@ -24179,7 +24267,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="915" spans="1:4" hidden="1">
+    <row r="915" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>4</v>
       </c>
@@ -24193,7 +24281,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="916" spans="1:4" hidden="1">
+    <row r="916" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>4</v>
       </c>
@@ -24207,7 +24295,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="917" spans="1:4" hidden="1">
+    <row r="917" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>4</v>
       </c>
@@ -24221,7 +24309,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="918" spans="1:4" hidden="1">
+    <row r="918" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>4</v>
       </c>
@@ -24235,7 +24323,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="919" spans="1:4" hidden="1">
+    <row r="919" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>4</v>
       </c>
@@ -24249,7 +24337,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="920" spans="1:4" hidden="1">
+    <row r="920" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>4</v>
       </c>
@@ -24263,7 +24351,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="921" spans="1:4" hidden="1">
+    <row r="921" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>4</v>
       </c>
@@ -24277,7 +24365,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="922" spans="1:4" hidden="1">
+    <row r="922" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>4</v>
       </c>
@@ -24291,7 +24379,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="923" spans="1:4" hidden="1">
+    <row r="923" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>4</v>
       </c>
@@ -24305,7 +24393,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="924" spans="1:4" hidden="1">
+    <row r="924" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>4</v>
       </c>
@@ -24319,7 +24407,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="925" spans="1:4" hidden="1">
+    <row r="925" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>4</v>
       </c>
@@ -24333,7 +24421,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="926" spans="1:4" hidden="1">
+    <row r="926" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>4</v>
       </c>
@@ -24347,7 +24435,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="927" spans="1:4" hidden="1">
+    <row r="927" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>4</v>
       </c>
@@ -24361,7 +24449,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="928" spans="1:4" hidden="1">
+    <row r="928" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>4</v>
       </c>
@@ -24375,7 +24463,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="929" spans="1:4">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>597</v>
       </c>
@@ -24389,7 +24477,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="930" spans="1:4" hidden="1">
+    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>4</v>
       </c>
@@ -24403,7 +24491,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="931" spans="1:4" hidden="1">
+    <row r="931" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>4</v>
       </c>
@@ -24417,7 +24505,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="932" spans="1:4" hidden="1">
+    <row r="932" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>4</v>
       </c>
@@ -24431,7 +24519,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="933" spans="1:4" hidden="1">
+    <row r="933" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>4</v>
       </c>
@@ -24445,7 +24533,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="934" spans="1:4" hidden="1">
+    <row r="934" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>4</v>
       </c>
@@ -24459,7 +24547,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="935" spans="1:4" hidden="1">
+    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>4</v>
       </c>
@@ -24473,7 +24561,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="936" spans="1:4" hidden="1">
+    <row r="936" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>4</v>
       </c>
@@ -24487,7 +24575,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="937" spans="1:4" hidden="1">
+    <row r="937" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>4</v>
       </c>
@@ -24501,7 +24589,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="938" spans="1:4" hidden="1">
+    <row r="938" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>4</v>
       </c>
@@ -24515,7 +24603,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="939" spans="1:4">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>2595</v>
       </c>
@@ -24529,7 +24617,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="940" spans="1:4" hidden="1">
+    <row r="940" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>4</v>
       </c>
@@ -24543,7 +24631,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="941" spans="1:4">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>2875</v>
       </c>
@@ -24557,7 +24645,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="942" spans="1:4" hidden="1">
+    <row r="942" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>4</v>
       </c>
@@ -24571,7 +24659,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="943" spans="1:4">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>1059</v>
       </c>
@@ -24585,7 +24673,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="944" spans="1:4" hidden="1">
+    <row r="944" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>4</v>
       </c>
@@ -24599,7 +24687,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="945" spans="1:4" hidden="1">
+    <row r="945" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>4</v>
       </c>
@@ -24613,7 +24701,7 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="946" spans="1:4" hidden="1">
+    <row r="946" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>4</v>
       </c>
@@ -24627,7 +24715,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="947" spans="1:4">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>945</v>
       </c>
@@ -24641,7 +24729,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="948" spans="1:4">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>457</v>
       </c>
@@ -24655,7 +24743,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="949" spans="1:4">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>957</v>
       </c>
@@ -24669,7 +24757,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="950" spans="1:4">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>187</v>
       </c>
@@ -24683,7 +24771,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="951" spans="1:4">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>453</v>
       </c>
@@ -24697,7 +24785,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="952" spans="1:4">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>333</v>
       </c>
@@ -24711,7 +24799,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="953" spans="1:4" hidden="1">
+    <row r="953" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>4</v>
       </c>
@@ -24725,7 +24813,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="954" spans="1:4">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>1365</v>
       </c>
@@ -24739,7 +24827,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="955" spans="1:4">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>1632</v>
       </c>
@@ -24753,7 +24841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="956" spans="1:4">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>1482</v>
       </c>
@@ -24767,7 +24855,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="957" spans="1:4">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>321</v>
       </c>
@@ -24781,7 +24869,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="958" spans="1:4" hidden="1">
+    <row r="958" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>4</v>
       </c>
@@ -24795,7 +24883,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="959" spans="1:4" hidden="1">
+    <row r="959" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>4</v>
       </c>
@@ -24809,7 +24897,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="960" spans="1:4" hidden="1">
+    <row r="960" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>4</v>
       </c>
@@ -24823,7 +24911,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="961" spans="1:4">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>473</v>
       </c>
@@ -24837,7 +24925,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="962" spans="1:4" hidden="1">
+    <row r="962" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>4</v>
       </c>
@@ -24851,7 +24939,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="963" spans="1:4" hidden="1">
+    <row r="963" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>4</v>
       </c>
@@ -24865,7 +24953,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="964" spans="1:4" hidden="1">
+    <row r="964" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>4</v>
       </c>
@@ -24879,7 +24967,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="965" spans="1:4" hidden="1">
+    <row r="965" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>4</v>
       </c>
@@ -24893,7 +24981,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="966" spans="1:4" hidden="1">
+    <row r="966" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>4</v>
       </c>
@@ -24907,7 +24995,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="967" spans="1:4" hidden="1">
+    <row r="967" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>4</v>
       </c>
@@ -24921,7 +25009,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="968" spans="1:4" hidden="1">
+    <row r="968" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>4</v>
       </c>
@@ -24935,7 +25023,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="969" spans="1:4" hidden="1">
+    <row r="969" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>4</v>
       </c>
@@ -24949,7 +25037,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="970" spans="1:4" hidden="1">
+    <row r="970" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>4</v>
       </c>
@@ -24963,7 +25051,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="971" spans="1:4">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>1534</v>
       </c>
@@ -24977,7 +25065,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="972" spans="1:4" hidden="1">
+    <row r="972" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>4</v>
       </c>
@@ -24991,7 +25079,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="973" spans="1:4">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>509</v>
       </c>
@@ -25005,7 +25093,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="974" spans="1:4" hidden="1">
+    <row r="974" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>4</v>
       </c>
@@ -25019,7 +25107,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="975" spans="1:4">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>2990</v>
       </c>
@@ -25033,7 +25121,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="976" spans="1:4" hidden="1">
+    <row r="976" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>4</v>
       </c>
@@ -25047,7 +25135,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="977" spans="1:4" hidden="1">
+    <row r="977" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>4</v>
       </c>
@@ -25061,7 +25149,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="978" spans="1:4">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>3198</v>
       </c>
@@ -25075,7 +25163,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="979" spans="1:4" hidden="1">
+    <row r="979" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>4</v>
       </c>
@@ -25089,7 +25177,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="980" spans="1:4">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>2982</v>
       </c>
@@ -25103,7 +25191,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="981" spans="1:4">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>2867</v>
       </c>
@@ -25117,7 +25205,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="982" spans="1:4" hidden="1">
+    <row r="982" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>4</v>
       </c>
@@ -25131,7 +25219,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="983" spans="1:4" hidden="1">
+    <row r="983" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>4</v>
       </c>
@@ -25145,7 +25233,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="984" spans="1:4" hidden="1">
+    <row r="984" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>4</v>
       </c>
@@ -25159,7 +25247,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="985" spans="1:4" hidden="1">
+    <row r="985" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>4</v>
       </c>
@@ -25173,7 +25261,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="986" spans="1:4">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>1602</v>
       </c>
@@ -25187,7 +25275,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="987" spans="1:4" hidden="1">
+    <row r="987" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>4</v>
       </c>
@@ -25201,7 +25289,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="988" spans="1:4" hidden="1">
+    <row r="988" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>4</v>
       </c>
@@ -25215,7 +25303,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="989" spans="1:4">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>1907</v>
       </c>
@@ -25229,7 +25317,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="990" spans="1:4" hidden="1">
+    <row r="990" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>4</v>
       </c>
@@ -25243,7 +25331,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="991" spans="1:4" hidden="1">
+    <row r="991" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>4</v>
       </c>
@@ -25257,7 +25345,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="992" spans="1:4" hidden="1">
+    <row r="992" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>4</v>
       </c>
@@ -25271,7 +25359,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="993" spans="1:4">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>1023</v>
       </c>
@@ -25285,7 +25373,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="994" spans="1:4" hidden="1">
+    <row r="994" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>4</v>
       </c>
@@ -25299,7 +25387,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="995" spans="1:4" hidden="1">
+    <row r="995" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>4</v>
       </c>
@@ -25313,7 +25401,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="996" spans="1:4" hidden="1">
+    <row r="996" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>4</v>
       </c>
@@ -25327,7 +25415,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="997" spans="1:4" hidden="1">
+    <row r="997" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>4</v>
       </c>
@@ -25341,7 +25429,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="998" spans="1:4">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>843</v>
       </c>
@@ -25355,7 +25443,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="999" spans="1:4" hidden="1">
+    <row r="999" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>4</v>
       </c>
@@ -25369,7 +25457,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" hidden="1">
+    <row r="1000" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>4</v>
       </c>
@@ -25383,7 +25471,7 @@
         <v>3129</v>
       </c>
     </row>
-    <row r="1001" spans="1:4">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>2125</v>
       </c>
@@ -25397,7 +25485,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" hidden="1">
+    <row r="1002" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>4</v>
       </c>
@@ -25411,7 +25499,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" hidden="1">
+    <row r="1003" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>4</v>
       </c>
@@ -25425,7 +25513,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" hidden="1">
+    <row r="1004" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>4</v>
       </c>
@@ -25439,7 +25527,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" hidden="1">
+    <row r="1005" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>4</v>
       </c>
@@ -25453,7 +25541,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" hidden="1">
+    <row r="1006" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>4</v>
       </c>
@@ -25467,7 +25555,7 @@
         <v>3143</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" hidden="1">
+    <row r="1007" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>4</v>
       </c>
@@ -25481,7 +25569,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" hidden="1">
+    <row r="1008" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>4</v>
       </c>
@@ -25495,7 +25583,7 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" hidden="1">
+    <row r="1009" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>4</v>
       </c>
@@ -25509,7 +25597,7 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" hidden="1">
+    <row r="1010" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>4</v>
       </c>
@@ -25523,7 +25611,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" hidden="1">
+    <row r="1011" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>4</v>
       </c>
@@ -25537,7 +25625,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="1012" spans="1:4">
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>1510</v>
       </c>
@@ -25551,7 +25639,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" hidden="1">
+    <row r="1013" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>4</v>
       </c>
@@ -25565,7 +25653,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" hidden="1">
+    <row r="1014" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>4</v>
       </c>
@@ -25579,7 +25667,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" hidden="1">
+    <row r="1015" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>4</v>
       </c>
@@ -25593,7 +25681,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" hidden="1">
+    <row r="1016" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>4</v>
       </c>
@@ -25607,7 +25695,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="1017" spans="1:4">
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>2579</v>
       </c>
@@ -25621,7 +25709,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" hidden="1">
+    <row r="1018" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>4</v>
       </c>
@@ -25635,7 +25723,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="1019" spans="1:4" hidden="1">
+    <row r="1019" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>4</v>
       </c>
@@ -25649,7 +25737,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" hidden="1">
+    <row r="1020" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>4</v>
       </c>
@@ -25663,7 +25751,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" hidden="1">
+    <row r="1021" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
         <v>4</v>
       </c>
@@ -25677,7 +25765,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="1022" spans="1:4">
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>2549</v>
       </c>
@@ -25691,7 +25779,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="1023" spans="1:4">
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>549</v>
       </c>
@@ -25705,7 +25793,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="1024" spans="1:4" hidden="1">
+    <row r="1024" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
         <v>4</v>
       </c>
@@ -25719,7 +25807,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" hidden="1">
+    <row r="1025" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
         <v>4</v>
       </c>
@@ -25733,7 +25821,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="1026" spans="1:4">
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>2119</v>
       </c>
@@ -25747,7 +25835,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="1027" spans="1:4" hidden="1">
+    <row r="1027" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
         <v>4</v>
       </c>
@@ -25761,7 +25849,7 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="1028" spans="1:4" hidden="1">
+    <row r="1028" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
         <v>4</v>
       </c>
@@ -25775,7 +25863,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="1029" spans="1:4" hidden="1">
+    <row r="1029" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
         <v>4</v>
       </c>
@@ -25789,7 +25877,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1030" spans="1:4" hidden="1">
+    <row r="1030" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
         <v>4</v>
       </c>
@@ -25803,7 +25891,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="1031" spans="1:4" hidden="1">
+    <row r="1031" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
         <v>4</v>
       </c>
@@ -25817,7 +25905,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="1032" spans="1:4" hidden="1">
+    <row r="1032" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
         <v>4</v>
       </c>
@@ -25831,7 +25919,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="1033" spans="1:4">
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
         <v>1640</v>
       </c>
@@ -25845,7 +25933,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="1034" spans="1:4">
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
         <v>1474</v>
       </c>
@@ -25859,7 +25947,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="1035" spans="1:4" hidden="1">
+    <row r="1035" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
         <v>4</v>
       </c>
@@ -25873,7 +25961,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="1036" spans="1:4" hidden="1">
+    <row r="1036" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
         <v>4</v>
       </c>
@@ -25887,7 +25975,7 @@
         <v>3209</v>
       </c>
     </row>
-    <row r="1037" spans="1:4" hidden="1">
+    <row r="1037" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>4</v>
       </c>
@@ -25901,7 +25989,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="1038" spans="1:4" hidden="1">
+    <row r="1038" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
         <v>4</v>
       </c>
@@ -25915,7 +26003,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="1039" spans="1:4" hidden="1">
+    <row r="1039" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>4</v>
       </c>
@@ -25929,7 +26017,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="1040" spans="1:4">
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
         <v>1849</v>
       </c>
@@ -25943,7 +26031,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="1041" spans="1:4" hidden="1">
+    <row r="1041" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>4</v>
       </c>
@@ -25957,7 +26045,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" hidden="1">
+    <row r="1042" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
         <v>4</v>
       </c>
@@ -25971,7 +26059,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="1043" spans="1:4" hidden="1">
+    <row r="1043" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>4</v>
       </c>
@@ -25985,7 +26073,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" hidden="1">
+    <row r="1044" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
         <v>4</v>
       </c>
@@ -25999,7 +26087,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="1045" spans="1:4" hidden="1">
+    <row r="1045" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>4</v>
       </c>
@@ -26013,7 +26101,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" hidden="1">
+    <row r="1046" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>4</v>
       </c>
@@ -26027,7 +26115,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" hidden="1">
+    <row r="1047" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>4</v>
       </c>
@@ -26041,7 +26129,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" hidden="1">
+    <row r="1048" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>4</v>
       </c>
@@ -26055,7 +26143,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="1049" spans="1:4" hidden="1">
+    <row r="1049" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>4</v>
       </c>
@@ -26069,7 +26157,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="1050" spans="1:4" hidden="1">
+    <row r="1050" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>4</v>
       </c>
@@ -26083,7 +26171,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="1051" spans="1:4" hidden="1">
+    <row r="1051" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
         <v>4</v>
       </c>
@@ -26097,7 +26185,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="1052" spans="1:4" hidden="1">
+    <row r="1052" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>4</v>
       </c>
@@ -26111,7 +26199,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" hidden="1">
+    <row r="1053" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
         <v>4</v>
       </c>
@@ -26125,7 +26213,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="1054" spans="1:4" hidden="1">
+    <row r="1054" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>4</v>
       </c>
@@ -26139,7 +26227,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" hidden="1">
+    <row r="1055" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>4</v>
       </c>
@@ -26153,7 +26241,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" hidden="1">
+    <row r="1056" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>4</v>
       </c>
@@ -26167,7 +26255,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="1057" spans="1:4" hidden="1">
+    <row r="1057" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
         <v>4</v>
       </c>
@@ -26181,7 +26269,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="1058" spans="1:4" hidden="1">
+    <row r="1058" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
         <v>4</v>
       </c>
@@ -26195,7 +26283,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="1059" spans="1:4">
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
         <v>2312</v>
       </c>
@@ -26209,7 +26297,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="1060" spans="1:4" hidden="1">
+    <row r="1060" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
         <v>4</v>
       </c>
@@ -26223,7 +26311,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="1061" spans="1:4" hidden="1">
+    <row r="1061" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
         <v>4</v>
       </c>
@@ -26237,7 +26325,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="1062" spans="1:4" hidden="1">
+    <row r="1062" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
         <v>4</v>
       </c>
@@ -26251,7 +26339,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="1063" spans="1:4" hidden="1">
+    <row r="1063" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
         <v>4</v>
       </c>
@@ -26265,7 +26353,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="1064" spans="1:4" hidden="1">
+    <row r="1064" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
         <v>4</v>
       </c>
@@ -26279,7 +26367,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="1065" spans="1:4">
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
         <v>1526</v>
       </c>
@@ -26293,7 +26381,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" hidden="1">
+    <row r="1066" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
         <v>4</v>
       </c>
@@ -26307,7 +26395,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" hidden="1">
+    <row r="1067" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
         <v>4</v>
       </c>
@@ -27637,25 +27725,27 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3282</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/00AlgoDis_unqdis.xlsx
+++ b/00AlgoDis_unqdis.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="unqdis" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="RMSD_Metabolic" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unqdis!$A$1:$D$1067</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4464" uniqueCount="3292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4794" uniqueCount="3297">
   <si>
     <t>Code</t>
   </si>
@@ -9899,6 +9900,21 @@
   </si>
   <si>
     <t>within 1 year simple to cure, o.w. difficult to disease</t>
+  </si>
+  <si>
+    <t>distype</t>
+  </si>
+  <si>
+    <t>RMSD</t>
+  </si>
+  <si>
+    <t>Metabolic</t>
+  </si>
+  <si>
+    <t>Sadhya-Asadhya</t>
+  </si>
+  <si>
+    <t>FreqCount</t>
   </si>
 </sst>
 </file>
@@ -10740,11 +10756,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N1067"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="30" topLeftCell="B895" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="30" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="B897" sqref="B897"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27731,6 +27747,1559 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C3" t="s">
+        <v>988</v>
+      </c>
+      <c r="D3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C7" t="s">
+        <v>514</v>
+      </c>
+      <c r="D7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C10" t="s">
+        <v>975</v>
+      </c>
+      <c r="D10">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>633</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C11" t="s">
+        <v>634</v>
+      </c>
+      <c r="D11">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>453</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D24">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>457</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D25">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>871</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C26" t="s">
+        <v>872</v>
+      </c>
+      <c r="D26">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C27" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>401</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C28" t="s">
+        <v>402</v>
+      </c>
+      <c r="D28">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>796</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C30" t="s">
+        <v>797</v>
+      </c>
+      <c r="D30">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C31" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>637</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C32" t="s">
+        <v>638</v>
+      </c>
+      <c r="D32">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>957</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C33" t="s">
+        <v>958</v>
+      </c>
+      <c r="D33">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>832</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C34" t="s">
+        <v>833</v>
+      </c>
+      <c r="D34">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>553</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C36" t="s">
+        <v>554</v>
+      </c>
+      <c r="D36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>740</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C38" t="s">
+        <v>741</v>
+      </c>
+      <c r="D38">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>373</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C39" t="s">
+        <v>374</v>
+      </c>
+      <c r="D39">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>941</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C41" t="s">
+        <v>942</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D42">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>569</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C43" t="s">
+        <v>570</v>
+      </c>
+      <c r="D43">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D44">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D45">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>836</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C46" t="s">
+        <v>820</v>
+      </c>
+      <c r="D46">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>597</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C48" t="s">
+        <v>598</v>
+      </c>
+      <c r="D48">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D49">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D50">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>481</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C51" t="s">
+        <v>482</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D52">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D53">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>577</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C54" t="s">
+        <v>578</v>
+      </c>
+      <c r="D54">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>772</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C55" t="s">
+        <v>773</v>
+      </c>
+      <c r="D55">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D56">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>780</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C57" t="s">
+        <v>781</v>
+      </c>
+      <c r="D57">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>937</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C58" t="s">
+        <v>938</v>
+      </c>
+      <c r="D58">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>441</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C59" t="s">
+        <v>442</v>
+      </c>
+      <c r="D59">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D60">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D62">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D63">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D64">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D65">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D66">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>493</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C67" t="s">
+        <v>494</v>
+      </c>
+      <c r="D67">
+        <v>7.6000000000000103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>863</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C68" t="s">
+        <v>864</v>
+      </c>
+      <c r="D68">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D69">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D70">
+        <v>7.9000000000000101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D71">
+        <v>8.0000000000000107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D72">
+        <v>8.1000000000000103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D73">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D74">
+        <v>8.3000000000000096</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D75">
+        <v>8.4000000000000092</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D76">
+        <v>8.5000000000000107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D77">
+        <v>8.6000000000000103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D78">
+        <v>8.7000000000000099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D79">
+        <v>8.8000000000000096</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D80">
+        <v>8.9000000000000092</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D81">
+        <v>9.0000000000000107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D82">
+        <v>9.1000000000000103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D83">
+        <v>9.2000000000000099</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D84">
+        <v>9.3000000000000096</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D85">
+        <v>9.4000000000000092</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3165</v>
+      </c>
+      <c r="D86">
+        <v>9.5000000000000107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D87">
+        <v>9.6000000000000103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D88">
+        <v>9.7000000000000099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D89">
+        <v>9.8000000000000096</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D90">
+        <v>9.9000000000000092</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D92">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D93">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D94">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D95">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D96">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D97">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D98">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D99">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C100" t="s">
+        <v>724</v>
+      </c>
+      <c r="D100">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D101">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D102">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D103">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D104">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D105">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D106">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D107">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>945</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C108" t="s">
+        <v>946</v>
+      </c>
+      <c r="D108">
+        <v>11.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:I116">
+    <sortCondition ref="D1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/00AlgoDis_unqdis.xlsx
+++ b/00AlgoDis_unqdis.xlsx
@@ -10405,9 +10405,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -27750,7 +27751,7 @@
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27807,128 +27808,128 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>987</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>3294</v>
       </c>
       <c r="C3" t="s">
-        <v>988</v>
+        <v>160</v>
       </c>
       <c r="D3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
         <v>3294</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="D4">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>3294</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D5">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>513</v>
       </c>
       <c r="B6" t="s">
         <v>3294</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>514</v>
       </c>
       <c r="D6">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>513</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s">
         <v>3294</v>
       </c>
       <c r="C7" t="s">
-        <v>514</v>
+        <v>398</v>
       </c>
       <c r="D7">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
         <v>3294</v>
       </c>
       <c r="C8" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="D8">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>1079</v>
       </c>
       <c r="B9" t="s">
         <v>3294</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>975</v>
       </c>
       <c r="D9">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1079</v>
+        <v>633</v>
       </c>
       <c r="B10" t="s">
         <v>3294</v>
       </c>
       <c r="C10" t="s">
-        <v>975</v>
+        <v>634</v>
       </c>
       <c r="D10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>633</v>
+        <v>987</v>
       </c>
       <c r="B11" t="s">
         <v>3294</v>
       </c>
       <c r="C11" t="s">
-        <v>634</v>
-      </c>
-      <c r="D11">
-        <v>1.9</v>
+        <v>988</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.99</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -29290,7 +29291,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I116">
+  <sortState ref="A2:I108">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00AlgoDis_unqdis.xlsx
+++ b/00AlgoDis_unqdis.xlsx
@@ -12,14 +12,63 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RMSD_Metabolic!$A$1:$L$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unqdis!$A$1:$D$1067</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="C18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Similar to the Arochak explanation, some more room for improvement in the way the data is captured</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Related to Gout, arthritis, inflammation</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="3312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4892" uniqueCount="3315">
   <si>
     <t>Code</t>
   </si>
@@ -9955,13 +10004,23 @@
   </si>
   <si>
     <t>IPs may provide an insight on the chronicity of patients</t>
+  </si>
+  <si>
+    <t>Trauma leading to pain</t>
+  </si>
+  <si>
+    <t>Too generic, treatment assignments may look at random</t>
+  </si>
+  <si>
+    <t>Too generic, treatment assignments may look at random
+Could be cardiac disease and not RMSD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10096,6 +10155,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -10445,10 +10517,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -27792,7 +27865,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28065,10 +28138,10 @@
         <v>3283</v>
       </c>
       <c r="F10" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="G10">
-        <v>90</v>
+        <v>9999</v>
       </c>
       <c r="H10" t="s">
         <v>3280</v>
@@ -28287,11 +28360,23 @@
       <c r="B18" t="s">
         <v>3293</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D18">
         <v>2.7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3280</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3280</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3280</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3312</v>
       </c>
       <c r="L18" t="s">
         <v>3311</v>
@@ -28310,6 +28395,18 @@
       <c r="D19">
         <v>2.8</v>
       </c>
+      <c r="F19" t="s">
+        <v>3280</v>
+      </c>
+      <c r="G19">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3280</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3280</v>
+      </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
@@ -28324,6 +28421,15 @@
       <c r="D20">
         <v>2.9</v>
       </c>
+      <c r="H20" t="s">
+        <v>3280</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3280</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3313</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
@@ -28367,6 +28473,18 @@
       <c r="D22">
         <v>3.1</v>
       </c>
+      <c r="F22" t="s">
+        <v>3280</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3280</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3280</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3313</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
@@ -28381,6 +28499,18 @@
       <c r="D23">
         <v>3.2</v>
       </c>
+      <c r="F23" t="s">
+        <v>3280</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3280</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3280</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3313</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
@@ -28465,6 +28595,9 @@
       <c r="D29">
         <v>3.8</v>
       </c>
+      <c r="K29" t="s">
+        <v>3313</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
@@ -28507,8 +28640,11 @@
       <c r="D32">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="K32" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>957</v>
       </c>
@@ -28522,7 +28658,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>832</v>
       </c>
@@ -28536,7 +28672,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -28550,7 +28686,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>553</v>
       </c>
@@ -28563,8 +28699,11 @@
       <c r="D36">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="K36" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>124</v>
       </c>
@@ -28578,7 +28717,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>740</v>
       </c>
@@ -28591,8 +28730,11 @@
       <c r="D38">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="K38" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>373</v>
       </c>
@@ -28606,7 +28748,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -28620,7 +28762,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>941</v>
       </c>
@@ -28633,8 +28775,11 @@
       <c r="D41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="K41" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>1039</v>
       </c>
@@ -28647,8 +28792,11 @@
       <c r="D42">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="K42" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>569</v>
       </c>
@@ -28661,8 +28809,11 @@
       <c r="D43">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="K43" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>1110</v>
       </c>
@@ -28676,7 +28827,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>2077</v>
       </c>
@@ -28690,7 +28841,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>836</v>
       </c>
@@ -28704,7 +28855,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>1230</v>
       </c>
@@ -28718,7 +28869,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>597</v>
       </c>
@@ -28732,7 +28883,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>1158</v>
       </c>
@@ -28746,7 +28897,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>1015</v>
       </c>
@@ -28760,7 +28911,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>481</v>
       </c>
@@ -28774,7 +28925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>1401</v>
       </c>
@@ -28788,7 +28939,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>1106</v>
       </c>
@@ -28802,7 +28953,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>577</v>
       </c>
@@ -28816,7 +28967,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>772</v>
       </c>
@@ -28830,7 +28981,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>1518</v>
       </c>
@@ -28844,7 +28995,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>780</v>
       </c>
@@ -28857,8 +29008,11 @@
       <c r="D57">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="K57" s="3" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>937</v>
       </c>
@@ -28871,8 +29025,11 @@
       <c r="D58">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="K58" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>441</v>
       </c>
@@ -28886,7 +29043,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>1245</v>
       </c>
@@ -28900,7 +29057,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>1803</v>
       </c>
@@ -28913,8 +29070,11 @@
       <c r="D61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="K61" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>1226</v>
       </c>
@@ -28928,7 +29088,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>1098</v>
       </c>
@@ -28942,7 +29102,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>2147</v>
       </c>
@@ -29180,7 +29340,7 @@
         <v>8.9000000000000092</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>1460</v>
       </c>
@@ -29194,7 +29354,7 @@
         <v>9.0000000000000107</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>1182</v>
       </c>
@@ -29208,7 +29368,7 @@
         <v>9.1000000000000103</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>1995</v>
       </c>
@@ -29222,7 +29382,7 @@
         <v>9.2000000000000099</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>3083</v>
       </c>
@@ -29236,7 +29396,7 @@
         <v>9.3000000000000096</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>1710</v>
       </c>
@@ -29250,7 +29410,7 @@
         <v>9.4000000000000092</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>3164</v>
       </c>
@@ -29264,7 +29424,7 @@
         <v>9.5000000000000107</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>1043</v>
       </c>
@@ -29277,8 +29437,11 @@
       <c r="D87">
         <v>9.6000000000000103</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="K87" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>3102</v>
       </c>
@@ -29292,7 +29455,7 @@
         <v>9.7000000000000099</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>2278</v>
       </c>
@@ -29306,7 +29469,7 @@
         <v>9.8000000000000096</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>1706</v>
       </c>
@@ -29320,7 +29483,7 @@
         <v>9.9000000000000092</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>1051</v>
       </c>
@@ -29334,7 +29497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>1813</v>
       </c>
@@ -29348,7 +29511,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>1154</v>
       </c>
@@ -29362,7 +29525,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>2875</v>
       </c>
@@ -29376,7 +29539,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>3174</v>
       </c>
@@ -29390,7 +29553,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>2531</v>
       </c>
@@ -29404,7 +29567,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>2360</v>
       </c>
@@ -29418,7 +29581,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>3073</v>
       </c>
@@ -29432,7 +29595,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>1466</v>
       </c>
@@ -29446,7 +29609,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>3036</v>
       </c>
@@ -29460,7 +29623,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>3264</v>
       </c>
@@ -29473,8 +29636,11 @@
       <c r="D101">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="K101" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>3178</v>
       </c>
@@ -29487,8 +29653,11 @@
       <c r="D102">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="K102" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>2775</v>
       </c>
@@ -29502,7 +29671,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>2852</v>
       </c>
@@ -29516,7 +29685,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>2143</v>
       </c>
@@ -29530,7 +29699,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>2970</v>
       </c>
@@ -29544,7 +29713,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>3095</v>
       </c>
@@ -29558,7 +29727,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>945</v>
       </c>
@@ -29573,11 +29742,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L108"/>
   <sortState ref="A2:I108">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
